--- a/问题清单.xlsx
+++ b/问题清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>评审对象</t>
   </si>
@@ -53,6 +53,39 @@
   </si>
   <si>
     <t>1.小组会继续讨论改进的地方2.暂时不考虑文件系统与其他模块的交互</t>
+  </si>
+  <si>
+    <t>文件系统和内核之间的关系</t>
+  </si>
+  <si>
+    <t>文件系统不属于内核，同时也不是文件系统的Actor。所以用例图需要修改，处理好用例、用户和内核之家的关系。</t>
+  </si>
+  <si>
+    <t>压缩文件不应该是文件系统的功能</t>
+  </si>
+  <si>
+    <t>重新分析文件系统的功能范围，修改用例图</t>
+  </si>
+  <si>
+    <t>部分Use Case Specification需要修改，流程的每一个步骤应该是一个具体的动作</t>
+  </si>
+  <si>
+    <t>对所有的Use Case Specification进行检查和修改</t>
+  </si>
+  <si>
+    <t>一些用例的Flow需要斟酌，比如新建目录、删除文件等</t>
+  </si>
+  <si>
+    <t>考虑用户删除文件时，是否需要负责文件是否存在，文件误删除判定。</t>
+  </si>
+  <si>
+    <t>对于一些功能的实现需要重新考虑,尤其是对用户可能错误行为的处理</t>
+  </si>
+  <si>
+    <t>仅仅依靠RUCM不能很好说明需求时，考虑使用其他一些图来补充说明</t>
+  </si>
+  <si>
+    <t>使用其他图完整描述需求</t>
   </si>
 </sst>
 </file>
@@ -60,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,6 +107,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -82,14 +129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -97,6 +136,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -105,14 +168,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,6 +189,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -134,85 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,73 +260,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,109 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,21 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,24 +465,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +484,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,22 +528,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,139 +571,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -727,6 +763,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -989,17 +1026,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="40.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="44.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1050,6 +1087,55 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="87" customHeight="1" spans="2:3">
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="60" customHeight="1" spans="2:4">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="65" customHeight="1" spans="2:4">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="57" customHeight="1" spans="2:4">
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="63" customHeight="1" spans="2:4">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
